--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 4.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
